--- a/Bansal_E_CH09_EXPV2_A1/Bansal_exploring_e09_grader_a1.xlsx
+++ b/Bansal_E_CH09_EXPV2_A1/Bansal_exploring_e09_grader_a1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\github\BUS 140\BUS-140\Bansal_E_CH09_EXPV2_A1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Passing" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
     <sheet name="Offensive Totals" sheetId="4" r:id="rId5"/>
     <sheet name="Defensive Totals" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>Yards</t>
   </si>
@@ -230,8 +225,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,8 +255,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +280,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -414,7 +423,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -432,21 +441,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="5" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="11" applyBorder="1" applyAlignment="1">
@@ -467,8 +472,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="17" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="18">
     <cellStyle name="+WXZ8gNaKeaa7XEnt8jp0IanWk3GckTKwCAtokdfi5o=-~+bpN37iFBYkLC9P1gVB0zw==" xfId="14"/>
     <cellStyle name="2uuKhigwng9LbFAKPmyc2C4H5CfXezB11KvIHF4S+Sc=-~V24l9WfZNx4rokSj4RBstA==" xfId="12"/>
     <cellStyle name="3ERAsXGbfZTAuKh419HTTV16VZFJ7R9i7gudgUTwJ2k=-~BAI8GOFus5dhPyQUtg2vWQ==" xfId="16"/>
@@ -477,6 +486,7 @@
     <cellStyle name="9EYLNxBb2Mx9oOcdsssmDkqcWmLOG3FeccdX8sqNkvI=-~KQGbjlEaCVL4JmfSbdW1dw==" xfId="15"/>
     <cellStyle name="9NdNkySm/7af4Yz34DZsYKBuggZ1gr/rDY+PkavtU7A=-~Z0ec52LY7k1w0GH5sJEung==" xfId="4"/>
     <cellStyle name="h+ddKBMEKOwWj6RCdaWYXOl9mhAbVfeeeYyf3osFOTs=-~qS6UW/9WIPHRVDv2aieHFA==" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8"/>
     <cellStyle name="K0o3m8aJfaG1U/iLyCYlTy4aei9AmWuBkYpca8x6kkc=-~gVNn3uAv+CYOS7GSk4kedA==" xfId="10"/>
     <cellStyle name="nId+/I5j8meMvgBZyHnm6XG2WNOwNVbw7zMwjvkpdD0=-~pL43zsKTkpcdpToZQ46E7w==" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +553,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,7 +588,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -789,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,37 +813,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -887,7 +897,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;A&amp;R&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -895,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,34 +921,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4"/>
+      <c r="F2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -967,7 +984,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D6" si="0">C4/B4</f>
+        <f t="shared" ref="D4:D5" si="0">C4/B4</f>
         <v>2.0666666666666669</v>
       </c>
       <c r="E4" s="1">
@@ -1023,7 +1040,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;A&amp;R&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1031,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,34 +1066,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4"/>
+      <c r="F2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1350,7 +1374,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;A&amp;R&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1358,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,33 +1399,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="15" t="s">
         <v>8</v>
       </c>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1880,9 +1912,19 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Stats cannot be less than 0" prompt="Enter all stats as whole numbers. " sqref="B3:F26">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;A&amp;R&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1890,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1902,20 +1944,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1928,7 +1970,7 @@
         <f>SUM(Passing!D3:D4,Rushing!C3:C6,Receiving!C3:C15)</f>
         <v>1978</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <f>SUM(Passing!C3:C4)/SUM(Passing!B3:B4)</f>
         <v>0.532258064516129</v>
       </c>
@@ -1937,7 +1979,15 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" location="Passing!C2" display="Completion Rate"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;A&amp;R&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1945,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,33 +2007,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="6">
+        <f>SUM(Defense!B3:B26)</f>
+        <v>362</v>
+      </c>
+      <c r="B3" s="6">
+        <f>SUM(Defense!E3:E26)</f>
+        <v>36</v>
+      </c>
+      <c r="C3" s="6">
+        <f>SUM(Defense!F3:F26)</f>
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" location="Defense!B2" display="Total Tackles"/>
+    <hyperlink ref="B2" location="Defense!E2" display="Forced Fumbles"/>
+    <hyperlink ref="C2" location="Defense!F2" display="Interceptions"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;A&amp;R&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
